--- a/characters info jemoh.xlsx
+++ b/characters info jemoh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dayne Helbano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotaro\Documents\FV-Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1683,29 +1683,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="F38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1735,29 +1735,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1787,81 +1787,81 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="G42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="H43" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="F44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1891,29 +1891,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>83</v>
       </c>
     </row>

--- a/characters info jemoh.xlsx
+++ b/characters info jemoh.xlsx
@@ -412,7 +412,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,12 +439,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,9 +480,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,119 +909,119 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1098,67 +1089,67 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1567,7 +1558,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1709,29 +1700,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1761,29 +1752,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="F41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1865,29 +1856,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1988,61 +1979,61 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="F52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="6" t="s">
+      <c r="F53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="4" t="s">
         <v>83</v>
       </c>
     </row>

--- a/characters info jemoh.xlsx
+++ b/characters info jemoh.xlsx
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" style="1" customWidth="1"/>
@@ -1950,32 +1950,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="6" t="s">
+      <c r="G51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>83</v>
       </c>
     </row>

--- a/characters info jemoh.xlsx
+++ b/characters info jemoh.xlsx
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/characters info jemoh.xlsx
+++ b/characters info jemoh.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="122">
   <si>
     <t>Character names</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>First Appearance (para to sa Library, di kase pwedeng yung appearance lang. Malilito)</t>
+  </si>
+  <si>
+    <t>pero normal dapat speed ng coconut</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,7 +800,7 @@
     <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
@@ -1177,6 +1180,11 @@
       </c>
       <c r="K13" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
